--- a/CompCars_Original/ResNet/wronglyClassifications/Data_Full_EigenCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
+++ b/CompCars_Original/ResNet/wronglyClassifications/Data_Full_EigenCAM_ResNet_CompCars_Original_ocrnet_hr48_carparts_noflip_wrongClassified_21_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,445 +436,507 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivationsOriginal</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrect</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsIncorrect</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsCorrected</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>PercActivationsFixed</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1451797787554811</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.1443879392706993</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2138458067088279</v>
       </c>
       <c r="E2" t="n">
         <v>0.2138458067088279</v>
       </c>
       <c r="F2" t="n">
+        <v>0.2138458067088279</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.145179778755481</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.006677752177250806</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006679518615390334</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.006524571775164491</v>
       </c>
       <c r="E3" t="n">
         <v>0.006524571775164491</v>
       </c>
       <c r="F3" t="n">
+        <v>0.006524571775164491</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.006677752177250802</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.006198398571733128</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.006199226823318673</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00612657499180576</v>
       </c>
       <c r="E4" t="n">
         <v>0.00612657499180576</v>
       </c>
       <c r="F4" t="n">
+        <v>0.00612657499180576</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.006198398571733139</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.005239299980012214</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.005241068889515249</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.005085905268436101</v>
       </c>
       <c r="E5" t="n">
         <v>0.005085905268436101</v>
       </c>
       <c r="F5" t="n">
+        <v>0.005085905268436101</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.005239299980012212</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005805456531627188</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.005809783380232082</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.005430244745698858</v>
       </c>
       <c r="E6" t="n">
         <v>0.005430244745698858</v>
       </c>
       <c r="F6" t="n">
+        <v>0.005430244745698858</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.005805456531627188</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.006956480043307331</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.006963507311628119</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.006347095676620905</v>
       </c>
       <c r="E7" t="n">
         <v>0.006347095676620905</v>
       </c>
       <c r="F7" t="n">
+        <v>0.006347095676620905</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.006956480043307325</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.007754806047964259</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.007760999541834871</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.007217724188040135</v>
       </c>
       <c r="E8" t="n">
         <v>0.007217724188040135</v>
       </c>
       <c r="F8" t="n">
+        <v>0.007217724188040135</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.007754806047964262</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.4377916207300936</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.4382133406238431</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4012212923122768</v>
       </c>
       <c r="E9" t="n">
         <v>0.4012212923122768</v>
       </c>
       <c r="F9" t="n">
+        <v>0.4012212923122768</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4377916207300942</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.02768439132219811</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.02769998816539574</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.02633187822885862</v>
       </c>
       <c r="E10" t="n">
         <v>0.02633187822885862</v>
       </c>
       <c r="F10" t="n">
+        <v>0.02633187822885862</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.02768439132219815</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.003189413389586293</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.003192746363423503</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.002900387546505308</v>
       </c>
       <c r="E11" t="n">
         <v>0.002900387546505308</v>
       </c>
       <c r="F11" t="n">
+        <v>0.002900387546505308</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.003189413389586291</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.03610364052764821</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.0361398855403957</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.03296057794195984</v>
       </c>
       <c r="E12" t="n">
         <v>0.03296057794195984</v>
       </c>
       <c r="F12" t="n">
+        <v>0.03296057794195984</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.03610364052764821</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.002731846440683609</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.002736280132614357</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.00234736951082062</v>
       </c>
       <c r="E13" t="n">
         <v>0.00234736951082062</v>
       </c>
       <c r="F13" t="n">
+        <v>0.00234736951082062</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.00273184644068361</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.02068338069428556</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.020706310329973</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01869498906273051</v>
       </c>
       <c r="E14" t="n">
         <v>0.01869498906273051</v>
       </c>
       <c r="F14" t="n">
+        <v>0.01869498906273051</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.02068338069428554</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2794868421682468</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.2798531091073385</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2477252334566469</v>
       </c>
       <c r="E15" t="n">
         <v>0.2477252334566469</v>
       </c>
       <c r="F15" t="n">
+        <v>0.2477252334566469</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.279486842168247</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.0005218749087548429</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.0005212571160447755</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0005754481042245567</v>
       </c>
       <c r="E16" t="n">
         <v>0.0005754481042245567</v>
       </c>
       <c r="F16" t="n">
+        <v>0.0005754481042245567</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.0005218749087548429</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.0001723338791835639</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.0001711749072933826</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0002728365665814445</v>
       </c>
       <c r="E17" t="n">
         <v>0.0002728365665814445</v>
       </c>
       <c r="F17" t="n">
+        <v>0.0002728365665814445</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.0001723338791835639</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.000360356445869739</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.00036224391562165</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.0001966805327122351</v>
       </c>
       <c r="E18" t="n">
         <v>0.0001966805327122351</v>
       </c>
       <c r="F18" t="n">
+        <v>0.0001966805327122351</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.000360356445869739</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.007458939931428033</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.007358531805547001</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.01616604195273003</v>
       </c>
       <c r="E19" t="n">
         <v>0.01616604195273003</v>
       </c>
       <c r="F19" t="n">
+        <v>0.01616604195273003</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.007458939931428034</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>3.387300063320556e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>3.087943122558825e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.934666740661247e-05</v>
       </c>
       <c r="E20" t="n">
         <v>2.934666740661247e-05</v>
       </c>
       <c r="F20" t="n">
+        <v>2.934666740661247e-05</v>
+      </c>
+      <c r="G20" t="n">
         <v>3.387300063320556e-06</v>
       </c>
     </row>
